--- a/medicine/Enfance/Marguerite_Thiébold/Marguerite_Thiébold.xlsx
+++ b/medicine/Enfance/Marguerite_Thiébold/Marguerite_Thiébold.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marguerite_Thi%C3%A9bold</t>
+          <t>Marguerite_Thiébold</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marguerite Thiébold (12 août 1908-25 mai 1997) est un écrivain français d'ouvrages pour la jeunesse. Elle a également publié quelques livres pour adultes sous le pseudonyme de M. Morgane.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marguerite_Thi%C3%A9bold</t>
+          <t>Marguerite_Thiébold</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Née le 12 août 1908 à Saint-Jean-d'Angély, son père est originaire du Tarn, et sa mère, de Colmar. Elle vient s'installer dans le Bas-Rhin en 1931, avec son mari Albert (1904-1978) professeur pour enfants sourds-muets. Ensemble ils ont trois enfants, deux filles et un garçon : Anne-Line, Evelyne et Daniel (1937-2009).
 Elle commence à écrire grâce à ses enfants à qui elle racontait de belles histoires qu'elle inventait pour eux quand ils étaient petits. Sur leur demande, elle décide de les mettre sur papier. Son époux l'encourage à choisir une quinzaine de ses nouvelles pour les publier, et elles sont acceptées.
@@ -523,7 +537,7 @@
 Passionnée de musique classique et pratiquant régulièrement le piano, son inspiration lui vient aussi des nombreux voyages qu'elle effectue avec son époux.
 Marguerite Thiébold a été membre de la Société des gens de lettres et vice-présidente de la Société des Écrivains d'Alsace, de Lorraine et du Territoire de Belfort pendant de nombreuses années.
 Certains de ses livres ont été traduits en plusieurs langues dont l'allemand, le portugais, l'anglais, l'espagnol, le croate, le serbe et le japonais.
-Marguerite Thiébold s'est éteinte le 25 mai 1997 à Strasbourg dans sa 89e année. Pour lui rendre hommage, l'école élémentaire de Bouxwiller a été rebaptisée école Marguerite Thiébold le 18 juin 2005[1]. En 2013, une rue est baptisée de son nom à Strasbourg[2].
+Marguerite Thiébold s'est éteinte le 25 mai 1997 à Strasbourg dans sa 89e année. Pour lui rendre hommage, l'école élémentaire de Bouxwiller a été rebaptisée école Marguerite Thiébold le 18 juin 2005. En 2013, une rue est baptisée de son nom à Strasbourg.
 </t>
         </is>
       </c>
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Marguerite_Thi%C3%A9bold</t>
+          <t>Marguerite_Thiébold</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,42 +568,161 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans sentimentaux
-1947 : L'Appel de la montagne (collection Libellule no 16, Éditions La Colombe).
+          <t>Romans sentimentaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1947 : L'Appel de la montagne (collection Libellule no 16, Éditions La Colombe).
 1948 : Suzanne aux cheveux d'or (coll. Libellule no 25, Éditions La Colombe).
 1954 : Du rêve à l'amour (coll. Fama no 60, S.E.P.I.A.), sous le pseudonyme de M. Morgane.
 1962 : La Dame du lac (coll. Rêves Bleus no 20, Éditions Des Remparts).
 1964 : L'Inconnue de la crique (coll. Mirabelle no 162, Éditions Des Remparts).
 1965 : La Robe écarlate (coll. Romanesque, Éditions du Dauphin).
-1968 : La Statue vivante (coll. Mirabelle no 215, Éditions Des Remparts).
-Livres pour la jeunesse
-Livres à système
-Tous les livres à système de Marguerite Thiébold sont parus aux éditions Lucos, Mulhouse, au cours des années 1950.
+1968 : La Statue vivante (coll. Mirabelle no 215, Éditions Des Remparts).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Marguerite_Thiébold</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marguerite_Thi%C3%A9bold</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Livres pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Livres à système</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tous les livres à système de Marguerite Thiébold sont parus aux éditions Lucos, Mulhouse, au cours des années 1950.
 Daniel et ses amis, illustrations de Grolleron
 Attention!... Dangers!..., illustrations de Janfre
 Moussy, illustrations de Janfre
 Cendrillon, illustrations de Jo Zagula
 A.B.C. en relief, illustrations de Jo Zagula
 Remarque : A.B.C. en relief est repris en 1956 par les éditions Lucien Adès sous forme de disque 33 tours intitulé J'apprends à lire et accompagné des six doubles pages en relief de A.B.C. en relief. Ce disque fait partie de la collection Le Petit Ménestrel. Le texte de Marguerite Thiébold est chanté et dit par Jany Sylvaine ; la musique est signée Hubert Rostaing.
-Romans
-1951 : Le Château dans la forêt (illustrations de P. Leroy, coll. Bibliothèque rose illustrée, Hachette).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marguerite_Thiébold</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marguerite_Thi%C3%A9bold</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Livres pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1951 : Le Château dans la forêt (illustrations de P. Leroy, coll. Bibliothèque rose illustrée, Hachette).
 1952 : La Fleur de glace (coll. Jeunesse du Monde, Hachette) ; réédité en 1957 après certains remaniements sous le titre Angelica (Bibliothèque verte, Hachette).
 1953 : Le Maître de Nordfjord (illustrations d'Albert Chazelle, coll. Idéal-Bibliothèque, Hachette).
 1955 : Amitia, fille du lac (illustrations de Gilles Valdès, coll. Rouge et Or souveraine, éditions G. P.).
 1956 : Le Cygne de Solveig (illustrations de Simone Baudoin, coll. Bibliothèque rose illustrée, Hachette).
 1956 : Le Collier de rubis (illustrations de Gilles Valdès, coll. Bibliothèque verte, Hachette).
-1956 : Lili et son basset (illustrations de Gilles Valdès, coll. Ségur-Fleuriot, Hachette)[3].
+1956 : Lili et son basset (illustrations de Gilles Valdès, coll. Ségur-Fleuriot, Hachette).
 1957 : Angelica (illustrations de Jacques Pecnard, coll. Bibliothèque verte, Hachette) : réédition remaniée de La Fleur de glace paru en 1952.
 1959 : La Fille du potier (illustrations de Gaston de Sainte-Croix, coll. Rouge et Or Dauphine, éditions G.P.).
 1961 : La Fleur du Mékong (illustrations de Jean Reschofsky, coll. Idéal-Bibliothèque no 200, Hachette).
 1962 : Deux Garçons de nulle part (illustrations d'Albert Chazelle, coll. Idéal-Bibliothèque no 233, Hachette).
 1964 : Le Traîneau de Manuela (illustrations de Gaston de Sainte-Croix, coll.  Idéal-Bibliothèque no 270, Hachette). Grand prix du salon de l’enfance 1964.
-1979 : Contes d'Alsace : récits du folklore alsacien (coll. Vermeille, Hachette).
-Séries
-Lili
-La série Lili a été publiée aux éditions Hachette dans la collection de la Bibliothèque rose[4]. Toutes les illustrations sont de Marianne Clouzot sauf pour Lili et l'énigme de Rochenoire illustré par Henriette Munière et la 1re édition de Lili et son basset illustré par Gilles Valdès[4]. Vingt-huit titres sont parus de 1959 à 1981[4].
+1979 : Contes d'Alsace : récits du folklore alsacien (coll. Vermeille, Hachette).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Marguerite_Thiébold</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marguerite_Thi%C3%A9bold</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Livres pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Séries</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Lili
+La série Lili a été publiée aux éditions Hachette dans la collection de la Bibliothèque rose. Toutes les illustrations sont de Marianne Clouzot sauf pour Lili et l'énigme de Rochenoire illustré par Henriette Munière et la 1re édition de Lili et son basset illustré par Gilles Valdès. Vingt-huit titres sont parus de 1959 à 1981.
 1959 : Lili et ses chèvres
-1961 : Lili et son basset[4]
+1961 : Lili et son basset
 1961 : Lili et son âne
 1963 : Lili et son loup
 1965 : Lili et son portrait
@@ -620,16 +753,129 @@
 Série publiée aux éditions Hachette dans la collection de la Bibliothèque rose.
 1958 : Pascal et le Vagabond (illustré par Jacques Pecnard
 1965 : Pascal et Pedro (illustré par Gaston de Sainte-Croix)
-1966 : Pascal et le Fantôme (illustré par Philippe Daure)
-Livres traduits à l'étranger
-en allemand
-Le Maître de Nordfjord (1953) : Das Schloss am Nordfjord (1956, Éditions Franckche Verlag à Stuttgart)
+1966 : Pascal et le Fantôme (illustré par Philippe Daure)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Marguerite_Thiébold</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marguerite_Thi%C3%A9bold</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Livres traduits à l'étranger</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>en allemand</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le Maître de Nordfjord (1953) : Das Schloss am Nordfjord (1956, Éditions Franckche Verlag à Stuttgart)
 Angelica (1957) : Angelika (1961)
-La Fleur du Mékong (1961) : Ein Mädchen aus Laos (1962)
-en anglais
-Pascal et le vagabond (1958) : Pascal and the tramp (1964, Reinders Books, H. Hamilton), traduit par Helen Woodyatt et illustré par Prudence Seward
-en portugais
-Quinze livres de la série Lili ont été traduits en portugais :
+La Fleur du Mékong (1961) : Ein Mädchen aus Laos (1962)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Marguerite_Thiébold</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marguerite_Thi%C3%A9bold</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Livres traduits à l'étranger</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>en anglais</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Pascal et le vagabond (1958) : Pascal and the tramp (1964, Reinders Books, H. Hamilton), traduit par Helen Woodyatt et illustré par Prudence Seward</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Marguerite_Thiébold</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marguerite_Thi%C3%A9bold</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Livres traduits à l'étranger</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>en portugais</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Quinze livres de la série Lili ont été traduits en portugais :
 Trois titres sont parus chez les éditions Majora dans la collection Rosália en 1966, traduits par Júlia Ferrari Tavares et illustrés  par Marianne Clouzot.
 Lili et son basset (1956) : Lili e o seu baixote (1966)
 Lili et ses chèvres (1959): Lili e as suas cabras (1966)
@@ -647,39 +893,117 @@
 Lili et la lettre cachée  (1973) : Filipa e a carta escondida (1988), traduit par Maria Guerne
 Lili et la grotte aux améthystes (1970)  : Filipa e a gruta das ametistas (1988), traduit par Maria Guerne
 Lili la fine mouche (1975) : Filipa e o retrato roubado (1990), traduit par Maria Guerne
-Le Traîneau de Manuela (1964) : O trenó de Manuela (1967, éditions Aster, Collection Nautilus, no 20), illustrations de Gaston de Sainte-Croix et Geraldes Sobrero, traduit par Maria de Barros.
-en espagnol
-Le Traîneau de Manuela (1964) : El trineo de Manuela (1972, éditions Kapelusz, Buenos Aires, Collection Iridium).
-en croate, serbe, japonais
-Le Traîneau de Manuela</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Marguerite_Thi%C3%A9bold</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Marguerite_Thi%C3%A9bold</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Le Traîneau de Manuela (1964) : O trenó de Manuela (1967, éditions Aster, Collection Nautilus, no 20), illustrations de Gaston de Sainte-Croix et Geraldes Sobrero, traduit par Maria de Barros.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Marguerite_Thiébold</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marguerite_Thi%C3%A9bold</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Livres traduits à l'étranger</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>en espagnol</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Le Traîneau de Manuela (1964) : El trineo de Manuela (1972, éditions Kapelusz, Buenos Aires, Collection Iridium).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Marguerite_Thiébold</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marguerite_Thi%C3%A9bold</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Livres traduits à l'étranger</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>en croate, serbe, japonais</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Le Traîneau de Manuela</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Marguerite_Thiébold</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marguerite_Thi%C3%A9bold</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Prix et Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>1936 : Prix de l'Alsace littéraire
 1964 : Grand Prix du Salon de l'Enfance à Paris pour Le Traîneau de Manuela
